--- a/02_incidenza/Grafici distribuzioni ed excel/Distribuzione oraria aggregata.xlsx
+++ b/02_incidenza/Grafici distribuzioni ed excel/Distribuzione oraria aggregata.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\Codice-Tesi\02_incidenza\Grafici distribuzioni ed excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEA92A8D-E6E6-426C-84B5-1E8CE7B320ED}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B966B7C-2E6F-41CF-94AC-96ACF953B669}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24669" windowHeight="9831"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24669" windowHeight="9831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Distribuzione oraria aggregata" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -34,7 +41,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -586,62 +593,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t>Distribuzione oraria aggregata</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -842,201 +794,6 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Distribuzione oraria aggregata'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Media</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Distribuzione oraria aggregata'!$A$2:$A$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Distribuzione oraria aggregata'!$C$2:$C$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>1114.875</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1114.875</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1114.875</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1114.875</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1114.875</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1114.875</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1114.875</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1114.875</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1114.875</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1114.875</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1114.875</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1114.875</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1114.875</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1114.875</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1114.875</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1114.875</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1114.875</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1114.875</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1114.875</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1114.875</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1114.875</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1114.875</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1114.875</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1114.875</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1C88-4162-A71E-40BB3ED1F496}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1056,6 +813,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Ore del giorno</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1121,6 +933,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Eventi di ictus</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1164,37 +1031,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1798,10 +1634,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>144900</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>78857</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>98615</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>58628</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2125,11 +1961,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
